--- a/sputnik/personal/ee/75ee.xlsx
+++ b/sputnik/personal/ee/75ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -513,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -692,30 +692,81 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17" t="s">
+      <c r="A8" s="15">
+        <v>44088</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>9077</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" ref="D8:D9" si="1">SUM(C8,-C6)</f>
+        <v>200</v>
+      </c>
+      <c r="E8" s="18">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="14">
+        <f>D8*E8</f>
+        <v>942</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>1197</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>4764</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="14">
+        <f>D9*E9</f>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>1935.73</v>
-      </c>
-      <c r="H8" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="2" t="s">
+      <c r="G10" s="10">
+        <f>SUM(G2:G9)</f>
+        <v>3132.73</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H2:H9)</f>
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10">
-        <f>SUM(H8,-G8)</f>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f>SUM(H10,-G10)</f>
         <v>10.269999999999982</v>
       </c>
     </row>

--- a/sputnik/personal/ee/75ee.xlsx
+++ b/sputnik/personal/ee/75ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -513,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="14">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
         <v>1019.23</v>
       </c>
       <c r="G4" s="10">
@@ -627,14 +627,14 @@
         <v>4614</v>
       </c>
       <c r="D5" s="13">
-        <f t="shared" ref="D5:D7" si="0">SUM(C5,-C3)</f>
+        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
         <v>50</v>
       </c>
       <c r="E5" s="12">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="14">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G5" s="10"/>
@@ -651,14 +651,14 @@
         <v>8877</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="E6" s="18">
         <v>4.49</v>
       </c>
       <c r="F6" s="14">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>673.5</v>
       </c>
       <c r="G6" s="10">
@@ -678,14 +678,14 @@
         <v>4664</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E7" s="12">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="14">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>121.50000000000001</v>
       </c>
       <c r="G7" s="10"/>
@@ -702,14 +702,14 @@
         <v>9077</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" ref="D8:D9" si="1">SUM(C8,-C6)</f>
+        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
         <v>200</v>
       </c>
       <c r="E8" s="18">
         <v>4.71</v>
       </c>
       <c r="F8" s="14">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>942</v>
       </c>
       <c r="G8" s="10">
@@ -729,44 +729,95 @@
         <v>4764</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E9" s="12">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="14">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17" t="s">
+      <c r="A10" s="15">
+        <v>44130</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9277</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" ref="D10:D11" si="3">SUM(C10,-C8)</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="18">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>942</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>1452</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4964</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="4"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G12" s="10">
         <f>SUM(G2:G9)</f>
         <v>3132.73</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H12" s="10">
         <f>SUM(H2:H9)</f>
         <v>3143</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
         <v>10.269999999999982</v>
       </c>
     </row>

--- a/sputnik/personal/ee/75ee.xlsx
+++ b/sputnik/personal/ee/75ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -513,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -794,31 +794,82 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17" t="s">
+      <c r="A12" s="15">
+        <v>44151</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>9677</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
+        <v>400</v>
+      </c>
+      <c r="E12" s="18">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>1884</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>2394</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12">
+        <v>5164</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="6"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
-        <f>SUM(G2:G9)</f>
-        <v>3132.73</v>
-      </c>
-      <c r="H12" s="10">
-        <f>SUM(H2:H9)</f>
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+      <c r="G14" s="10">
+        <f>SUM(G2:G13)</f>
+        <v>6978.73</v>
+      </c>
+      <c r="H14" s="10">
+        <f>SUM(H2:H13)</f>
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
-        <v>10.269999999999982</v>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f>SUM(H14,-G14)</f>
+        <v>30.270000000000437</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/75ee.xlsx
+++ b/sputnik/personal/ee/75ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -513,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -845,30 +845,81 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17" t="s">
+      <c r="A14" s="15">
+        <v>44189</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>10077</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
+        <v>400</v>
+      </c>
+      <c r="E14" s="18">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>1884</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>2394</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>5364</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="8"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="10">
-        <f>SUM(G2:G13)</f>
-        <v>6978.73</v>
-      </c>
-      <c r="H14" s="10">
-        <f>SUM(H2:H13)</f>
-        <v>7009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="G16" s="10">
+        <f>SUM(G2:G15)</f>
+        <v>9372.73</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(H2:H15)</f>
+        <v>9403</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f>SUM(H16,-G16)</f>
         <v>30.270000000000437</v>
       </c>
     </row>

--- a/sputnik/personal/ee/75ee.xlsx
+++ b/sputnik/personal/ee/75ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -513,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -896,31 +896,133 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17" t="s">
+      <c r="A16" s="15">
+        <v>44228</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <v>10277</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" ref="D16:D17" si="9">SUM(C16,-C14)</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="18">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>942</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>1069.5</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>5414</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="10"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>44242</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>10377</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" ref="D18:D19" si="11">SUM(C18,-C16)</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="18">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
+        <v>471</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>598.5</v>
+      </c>
+      <c r="H18" s="10">
+        <v>568.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>5464</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="12"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
-        <f>SUM(G2:G15)</f>
-        <v>9372.73</v>
-      </c>
-      <c r="H16" s="10">
-        <f>SUM(H2:H15)</f>
-        <v>9403</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+      <c r="G20" s="10">
+        <f>SUM(G2:G19)</f>
+        <v>11040.73</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H2:H19)</f>
+        <v>11040.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f>SUM(H16,-G16)</f>
-        <v>30.270000000000437</v>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>4.0000000000873115E-2</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/75ee.xlsx
+++ b/sputnik/personal/ee/75ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -513,10 +513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -998,30 +998,81 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17" t="s">
+      <c r="A20" s="15">
+        <v>44426</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>10527</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" ref="D20:D21" si="13">SUM(C20,-C18)</f>
+        <v>150</v>
+      </c>
+      <c r="E20" s="18">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
+        <v>744</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>878</v>
+      </c>
+      <c r="H20" s="10">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>5514</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="10">
-        <f>SUM(G2:G19)</f>
-        <v>11040.73</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H2:H19)</f>
-        <v>11040.77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="10">
+        <f>SUM(G2:G21)</f>
+        <v>11918.73</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H2:H21)</f>
+        <v>11918.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
         <v>4.0000000000873115E-2</v>
       </c>
     </row>

--- a/sputnik/personal/ee/75ee.xlsx
+++ b/sputnik/personal/ee/75ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -162,30 +162,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -513,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -534,546 +522,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43781</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>44189</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>8500</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="C2" s="9">
+        <v>10077</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
-        <v>4564</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="C3" s="8">
+        <v>5364</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>43816</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="11">
+        <v>44228</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13">
-        <v>8727</v>
-      </c>
-      <c r="D4" s="13">
-        <f>SUM(C4,-C2)</f>
-        <v>227</v>
-      </c>
-      <c r="E4" s="18">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="14">
-        <f t="shared" ref="F4:F9" si="0">D4*E4</f>
-        <v>1019.23</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="C4" s="9">
+        <v>10277</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
+        <v>200</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>942</v>
+      </c>
+      <c r="G4" s="6">
         <f>SUM(F4,F5)</f>
-        <v>1140.73</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1141</v>
+        <v>1069.5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1069.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
-        <v>4614</v>
-      </c>
-      <c r="D5" s="13">
-        <f t="shared" ref="D5:D7" si="1">SUM(C5,-C3)</f>
+      <c r="C5" s="8">
+        <v>5414</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E5" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="14">
-        <f t="shared" si="0"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="E5" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="1"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>43871</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="11">
+        <v>44242</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13">
-        <v>8877</v>
-      </c>
-      <c r="D6" s="13">
-        <f t="shared" si="1"/>
+      <c r="C6" s="9">
+        <v>10377</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>471</v>
+      </c>
+      <c r="G6" s="6">
+        <f>SUM(F6,F7)</f>
+        <v>598.5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>568.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5464</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="3"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>44426</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10527</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
         <v>150</v>
       </c>
-      <c r="E6" s="18">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>673.5</v>
-      </c>
-      <c r="G6" s="10">
-        <f>SUM(F6,F7)</f>
-        <v>795</v>
-      </c>
-      <c r="H6" s="10">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="E8" s="14">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>744</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(F8,F9)</f>
+        <v>878</v>
+      </c>
+      <c r="H8" s="6">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12">
-        <v>4664</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="1"/>
+      <c r="C9" s="8">
+        <v>5514</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="E7" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>121.50000000000001</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>44088</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
-        <v>9077</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" ref="D8:D9" si="2">SUM(C8,-C6)</f>
-        <v>200</v>
-      </c>
-      <c r="E8" s="18">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>942</v>
-      </c>
-      <c r="G8" s="10">
-        <f>SUM(F8,F9)</f>
-        <v>1197</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12">
-        <v>4764</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="0"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>44130</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
-        <v>9277</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" ref="D10:D11" si="3">SUM(C10,-C8)</f>
-        <v>200</v>
-      </c>
-      <c r="E10" s="18">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
-        <v>942</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(F10,F11)</f>
-        <v>1452</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
-        <v>4964</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="4"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>44151</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
-        <v>9677</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
-        <v>400</v>
-      </c>
-      <c r="E12" s="18">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
-        <v>1884</v>
-      </c>
-      <c r="G12" s="10">
-        <f>SUM(F12,F13)</f>
-        <v>2394</v>
-      </c>
-      <c r="H12" s="10">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
-        <v>5164</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="6"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>44189</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
-        <v>10077</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
-        <v>400</v>
-      </c>
-      <c r="E14" s="18">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
-        <v>1884</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>2394</v>
-      </c>
-      <c r="H14" s="10">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
-        <v>5364</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="8"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>44228</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
-        <v>10277</v>
-      </c>
-      <c r="D16" s="13">
-        <f t="shared" ref="D16:D17" si="9">SUM(C16,-C14)</f>
-        <v>200</v>
-      </c>
-      <c r="E16" s="18">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="14">
-        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
-        <v>942</v>
-      </c>
-      <c r="G16" s="10">
-        <f>SUM(F16,F17)</f>
-        <v>1069.5</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1069.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
-        <v>5414</v>
-      </c>
-      <c r="D17" s="13">
-        <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="E17" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="10"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>44242</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
-        <v>10377</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" ref="D18:D19" si="11">SUM(C18,-C16)</f>
-        <v>100</v>
-      </c>
-      <c r="E18" s="18">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
-        <v>471</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(F18,F19)</f>
-        <v>598.5</v>
-      </c>
-      <c r="H18" s="10">
-        <v>568.27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>5464</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="12"/>
-        <v>127.49999999999999</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>44426</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
-        <v>10527</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" ref="D20:D21" si="13">SUM(C20,-C18)</f>
-        <v>150</v>
-      </c>
-      <c r="E20" s="18">
-        <v>4.96</v>
-      </c>
-      <c r="F20" s="14">
-        <f t="shared" ref="F20:F21" si="14">D20*E20</f>
-        <v>744</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(F20,F21)</f>
-        <v>878</v>
-      </c>
-      <c r="H20" s="10">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12">
-        <v>5514</v>
-      </c>
-      <c r="D21" s="13">
-        <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="E21" s="12">
-        <v>2.68</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="14"/>
-        <v>134</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10">
-        <f>SUM(G2:G21)</f>
-        <v>11918.73</v>
-      </c>
-      <c r="H22" s="10">
-        <f>SUM(H2:H21)</f>
-        <v>11918.77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G10" s="6">
+        <f>SUM(G2:G9)</f>
+        <v>2546</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(H2:H9)</f>
+        <v>2515.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f>SUM(H22,-G22)</f>
-        <v>4.0000000000873115E-2</v>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <f>SUM(H10,-G10)</f>
+        <v>-30.230000000000018</v>
       </c>
     </row>
   </sheetData>
